--- a/Stocks/TECHM.xlsx
+++ b/Stocks/TECHM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>419.88333333333338</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>398.04981180626987</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>388.69961278335381</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>UP</v>
       </c>
       <c r="N67">
         <v>71.531340643600089</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>6.3000000000000114</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>9.8999999999999773</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.63636363636363902</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>391.02372254036328</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>0.46186385483497361</v>
       </c>
       <c r="Y67">
         <v>-1.1299844730015889</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>427.15</v>
+      </c>
+      <c r="D83">
+        <v>436</v>
+      </c>
+      <c r="E83">
+        <v>426.45</v>
+      </c>
+      <c r="F83">
+        <v>427.8</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>430.08333333333331</v>
+      </c>
+      <c r="H83">
+        <v>431.00939178179635</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J83">
+        <v>433.87010667364797</v>
+      </c>
+      <c r="K83">
+        <v>421.73346562042161</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>58.589643847065517</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>1.3500000000000227</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>9.5500000000000114</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.14136125654450482</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>421.39156297037596</v>
+      </c>
+      <c r="W83">
+        <v>411.30530344871335</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>10.086259521662612</v>
+      </c>
+      <c r="Y83">
+        <v>8.0250099811097257</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>429.95</v>
+      </c>
+      <c r="D84">
+        <v>433.95</v>
+      </c>
+      <c r="E84">
+        <v>423</v>
+      </c>
+      <c r="F84">
+        <v>433</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>429.98333333333335</v>
+      </c>
+      <c r="H84">
+        <v>430.49636255756485</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J84">
+        <v>433.88786074617065</v>
+      </c>
+      <c r="K84">
+        <v>422.01491770477236</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>67.393657865541471</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>10.949999999999989</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.91324200913242104</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>423.1774763595489</v>
+      </c>
+      <c r="W84">
+        <v>412.91231800806793</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>10.265158351480977</v>
+      </c>
+      <c r="Y84">
+        <v>8.4730396551839764</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>434</v>
+      </c>
+      <c r="D85">
+        <v>436</v>
+      </c>
+      <c r="E85">
+        <v>425.05</v>
+      </c>
+      <c r="F85">
+        <v>425.8</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>428.95</v>
+      </c>
+      <c r="H85">
+        <v>429.72318127878242</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>434.35722502479939</v>
+      </c>
+      <c r="K85">
+        <v>422.68938043704514</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>49.265495549852524</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>0.75</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>10.949999999999989</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>6.8493150684931572E-2</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>423.58094153500292</v>
+      </c>
+      <c r="W85">
+        <v>413.8669611185814</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>9.7139804164215207</v>
+      </c>
+      <c r="Y85">
+        <v>8.721227807431486</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>428.25</v>
+      </c>
+      <c r="D86">
+        <v>432.5</v>
+      </c>
+      <c r="E86">
+        <v>426.2</v>
+      </c>
+      <c r="F86">
+        <v>427.4</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>428.7</v>
+      </c>
+      <c r="H86">
+        <v>429.2115906393912</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J86">
+        <v>433.94450835262177</v>
+      </c>
+      <c r="K86">
+        <v>423.4695181177018</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>52.792781463085682</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>1.1999999999999886</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>6.3000000000000114</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.19047619047618833</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>424.16848899115632</v>
+      </c>
+      <c r="W86">
+        <v>414.86940844313091</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>9.2990805480254153</v>
+      </c>
+      <c r="Y86">
+        <v>8.8367983555502718</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>429</v>
+      </c>
+      <c r="D87">
+        <v>430.25</v>
+      </c>
+      <c r="E87">
+        <v>422.6</v>
+      </c>
+      <c r="F87">
+        <v>424</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>425.61666666666662</v>
+      </c>
+      <c r="H87">
+        <v>427.41412865302891</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J87">
+        <v>433.12350649648357</v>
+      </c>
+      <c r="K87">
+        <v>423.27629186932364</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>44.56312307526111</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>1.3999999999999773</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>7.6499999999999773</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.18300653594770999</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>424.14256760790153</v>
+      </c>
+      <c r="W87">
+        <v>415.54574855845453</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>8.5968190494469923</v>
+      </c>
+      <c r="Y87">
+        <v>8.7888024943296159</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>425</v>
+      </c>
+      <c r="D88">
+        <v>428.7</v>
+      </c>
+      <c r="E88">
+        <v>410.55</v>
+      </c>
+      <c r="F88">
+        <v>416.8</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>418.68333333333334</v>
+      </c>
+      <c r="H88">
+        <v>423.04873099318115</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>432.14050505282057</v>
+      </c>
+      <c r="K88">
+        <v>420.44822700947395</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N88">
+        <v>31.545996937110143</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>6.25</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>18.149999999999977</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.34435261707989023</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>423.0129418220705</v>
+      </c>
+      <c r="W88">
+        <v>415.63865607264307</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>7.374285749427429</v>
+      </c>
+      <c r="Y88">
+        <v>8.5058991453491792</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>418.7</v>
+      </c>
+      <c r="D89">
+        <v>430.6</v>
+      </c>
+      <c r="E89">
+        <v>418.05</v>
+      </c>
+      <c r="F89">
+        <v>427</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>425.2166666666667</v>
+      </c>
+      <c r="H89">
+        <v>424.13269882992392</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>431.79817059663822</v>
+      </c>
+      <c r="K89">
+        <v>419.91528767403531</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>54.883436080286998</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>8.9499999999999886</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>12.550000000000011</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.71314741035856422</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>423.62633538790578</v>
+      </c>
+      <c r="W89">
+        <v>416.48023710429914</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>7.1460982836066478</v>
+      </c>
+      <c r="Y89">
+        <v>8.2339389730006722</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>425.1</v>
+      </c>
+      <c r="D90">
+        <v>427.2</v>
+      </c>
+      <c r="E90">
+        <v>421</v>
+      </c>
+      <c r="F90">
+        <v>424.6</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>424.26666666666671</v>
+      </c>
+      <c r="H90">
+        <v>424.19968274829534</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>430.77635490849639</v>
+      </c>
+      <c r="K90">
+        <v>420.15633485758303</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>49.88174285969194</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>3.6000000000000227</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>6.1999999999999886</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.58064516129032728</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>423.7761299436126</v>
+      </c>
+      <c r="W90">
+        <v>417.0817010224992</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>6.6944289211133992</v>
+      </c>
+      <c r="Y90">
+        <v>7.9260369626232174</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>426.5</v>
+      </c>
+      <c r="D91">
+        <v>429.9</v>
+      </c>
+      <c r="E91">
+        <v>423.15</v>
+      </c>
+      <c r="F91">
+        <v>425.6</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>426.2166666666667</v>
+      </c>
+      <c r="H91">
+        <v>425.20817470748102</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>430.58160937327494</v>
+      </c>
+      <c r="K91">
+        <v>420.82159377812013</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>52.152814954321727</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>2.4500000000000455</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>6.75</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.3629629629629697</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>424.05672533690296</v>
+      </c>
+      <c r="W91">
+        <v>417.71268613194371</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>6.3440392049592447</v>
+      </c>
+      <c r="Y91">
+        <v>7.6096374110904232</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>426.05</v>
+      </c>
+      <c r="D92">
+        <v>431.7</v>
+      </c>
+      <c r="E92">
+        <v>426.05</v>
+      </c>
+      <c r="F92">
+        <v>431</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>429.58333333333331</v>
+      </c>
+      <c r="H92">
+        <v>427.39575402040714</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J92">
+        <v>430.83014062365828</v>
+      </c>
+      <c r="K92">
+        <v>421.98346182742677</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N92">
+        <v>63.359953680864663</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>4.9499999999999886</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>5.6499999999999773</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.87610619469026696</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V92">
+        <v>425.12492143891791</v>
+      </c>
+      <c r="W92">
+        <v>418.69693160365159</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>6.4279898352663167</v>
+      </c>
+      <c r="Y92">
+        <v>7.3733078959256018</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>435</v>
+      </c>
+      <c r="D93">
+        <v>442.5</v>
+      </c>
+      <c r="E93">
+        <v>433.8</v>
+      </c>
+      <c r="F93">
+        <v>442</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>439.43333333333334</v>
+      </c>
+      <c r="H93">
+        <v>433.41454367687027</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>433.42344270728978</v>
+      </c>
+      <c r="K93">
+        <v>424.60935919910969</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>77.048520496969758</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>8.1999999999999886</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>8.6999999999999886</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.94252873563218387</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V93">
+        <v>427.72108737139206</v>
+      </c>
+      <c r="W93">
+        <v>420.42308481819595</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>7.2980025531961132</v>
+      </c>
+      <c r="Y93">
+        <v>7.3582468273797037</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>443</v>
+      </c>
+      <c r="D94">
+        <v>443.95</v>
+      </c>
+      <c r="E94">
+        <v>434</v>
+      </c>
+      <c r="F94">
+        <v>442.15</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>440.0333333333333</v>
+      </c>
+      <c r="H94">
+        <v>436.72393850510178</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>435.76267766122538</v>
+      </c>
+      <c r="K94">
+        <v>426.69616826597422</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>77.193753184191721</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>8.1499999999999773</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>9.9499999999999886</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.81909547738693333</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V94">
+        <v>429.94092008348559</v>
+      </c>
+      <c r="W94">
+        <v>422.03248594277403</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>7.908434140711563</v>
+      </c>
+      <c r="Y94">
+        <v>7.4682842900460757</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD94">
+        <f t="shared" si="35"/>
+        <v>435.15000000000003</v>
+      </c>
+      <c r="AE94">
+        <f t="shared" si="36"/>
+        <v>437.8</v>
+      </c>
+      <c r="AF94">
+        <f t="shared" si="37"/>
+        <v>439</v>
+      </c>
+      <c r="AG94">
+        <f t="shared" si="38"/>
+        <v>440.15000000000003</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>441.15</v>
+      </c>
+      <c r="D95">
+        <v>453.7</v>
+      </c>
+      <c r="E95">
+        <v>437.3</v>
+      </c>
+      <c r="F95">
+        <v>440.65</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>443.88333333333338</v>
+      </c>
+      <c r="H95">
+        <v>440.30363591921758</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>439.74874929206419</v>
+      </c>
+      <c r="K95">
+        <v>429.05257531797997</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N95">
+        <v>71.535464499792795</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>3.3499999999999659</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>16.399999999999977</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.20426829268292504</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>431.5884708398724</v>
+      </c>
+      <c r="W95">
+        <v>423.41156105812411</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>8.176909781748293</v>
+      </c>
+      <c r="Y95">
+        <v>7.6100093883865192</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>441</v>
+      </c>
+      <c r="D96">
+        <v>443</v>
+      </c>
+      <c r="E96">
+        <v>436.1</v>
+      </c>
+      <c r="F96">
+        <v>442.5</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>440.5333333333333</v>
+      </c>
+      <c r="H96">
+        <v>440.41848462627547</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>440.47124944938327</v>
+      </c>
+      <c r="K96">
+        <v>430.61866969176219</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N96">
+        <v>74.425484459882085</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>6.3999999999999773</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>6.8999999999999773</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.92753623188405776</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V96">
+        <v>433.26716763373821</v>
+      </c>
+      <c r="W96">
+        <v>424.82551949826308</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>8.441648135475134</v>
+      </c>
+      <c r="Y96">
+        <v>7.7763371378042425</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>437.35</v>
+      </c>
+      <c r="D97">
+        <v>447.9</v>
+      </c>
+      <c r="E97">
+        <v>437.35</v>
+      </c>
+      <c r="F97">
+        <v>443.95</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>443.06666666666666</v>
+      </c>
+      <c r="H97">
+        <v>441.7425756464711</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>442.12208290507584</v>
+      </c>
+      <c r="K97">
+        <v>432.11452087137059</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>76.739285823707931</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>6.5999999999999659</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>10.549999999999955</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.62559241706161084</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>434.91068030547081</v>
+      </c>
+      <c r="W97">
+        <v>426.24214768357695</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>8.6685326218938599</v>
+      </c>
+      <c r="Y97">
+        <v>7.954776234622166</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>444</v>
+      </c>
+      <c r="D98">
+        <v>451.35</v>
+      </c>
+      <c r="E98">
+        <v>443.3</v>
+      </c>
+      <c r="F98">
+        <v>446.45</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>447.03333333333336</v>
+      </c>
+      <c r="H98">
+        <v>444.3879544899022</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>444.1727311483923</v>
+      </c>
+      <c r="K98">
+        <v>434.60018289995492</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>80.534719033970987</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>3.1499999999999773</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>8.0500000000000114</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.39130434782608359</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>436.68596025847529</v>
+      </c>
+      <c r="W98">
+        <v>427.7390256329416</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>8.9469346255336859</v>
+      </c>
+      <c r="Y98">
+        <v>8.1532079128044703</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>445.9</v>
+      </c>
+      <c r="D99">
+        <v>449</v>
+      </c>
+      <c r="E99">
+        <v>442.5</v>
+      </c>
+      <c r="F99">
+        <v>448.95</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>446.81666666666666</v>
+      </c>
+      <c r="H99">
+        <v>445.60231057828446</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>445.24545755986065</v>
+      </c>
+      <c r="K99">
+        <v>436.35569781107603</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N99">
+        <v>83.832306911906485</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>6.4499999999999886</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>6.5</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.99230769230769056</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V99">
+        <v>438.57273560332527</v>
+      </c>
+      <c r="W99">
+        <v>429.31020891939039</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>9.2625266839348797</v>
+      </c>
+      <c r="Y99">
+        <v>8.3750716670305518</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD99">
+        <f t="shared" si="35"/>
+        <v>443.25</v>
+      </c>
+      <c r="AE99">
+        <f t="shared" si="36"/>
+        <v>445</v>
+      </c>
+      <c r="AF99">
+        <f t="shared" si="37"/>
+        <v>445.75</v>
+      </c>
+      <c r="AG99">
+        <f t="shared" si="38"/>
+        <v>446.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>450</v>
+      </c>
+      <c r="D100">
+        <v>450</v>
+      </c>
+      <c r="E100">
+        <v>445</v>
+      </c>
+      <c r="F100">
+        <v>448.3</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>447.76666666666665</v>
+      </c>
+      <c r="H100">
+        <v>446.68448862247556</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J100">
+        <v>446.30202254655831</v>
+      </c>
+      <c r="K100">
+        <v>438.27665385305914</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N100">
+        <v>79.457547078391869</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>3.3000000000000114</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.66000000000000225</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>440.0692378181983</v>
+      </c>
+      <c r="W100">
+        <v>430.71686011054663</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>9.3523777076516694</v>
+      </c>
+      <c r="Y100">
+        <v>8.5705328751547754</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>449</v>
+      </c>
+      <c r="D101">
+        <v>461.7</v>
+      </c>
+      <c r="E101">
+        <v>448.7</v>
+      </c>
+      <c r="F101">
+        <v>460.2</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>456.86666666666662</v>
+      </c>
+      <c r="H101">
+        <v>451.77557764457106</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J101">
+        <v>449.7237953139898</v>
+      </c>
+      <c r="K101">
+        <v>440.59295299682378</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N101">
+        <v>90.637949034194776</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>11.5</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>13</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.88461538461538458</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V101">
+        <v>443.16627815386011</v>
+      </c>
+      <c r="W101">
+        <v>432.90079639865428</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>10.265481755205826</v>
+      </c>
+      <c r="Y101">
+        <v>8.9095226511649859</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD101">
+        <f t="shared" si="35"/>
+        <v>450.20000000000005</v>
+      </c>
+      <c r="AE101">
+        <f t="shared" si="36"/>
+        <v>453.65000000000003</v>
+      </c>
+      <c r="AF101">
+        <f t="shared" si="37"/>
+        <v>455.20000000000005</v>
+      </c>
+      <c r="AG101">
+        <f t="shared" si="38"/>
+        <v>456.75</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>457.5</v>
+      </c>
+      <c r="D102">
+        <v>464.25</v>
+      </c>
+      <c r="E102">
+        <v>453</v>
+      </c>
+      <c r="F102">
+        <v>457.6</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>458.2833333333333</v>
+      </c>
+      <c r="H102">
+        <v>455.02945548895218</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J102">
+        <v>452.95184079976985</v>
+      </c>
+      <c r="K102">
+        <v>443.35007455308516</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N102">
+        <v>78.90878939408212</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>4.6000000000000227</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>11.25</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.40888888888889091</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>445.38685074557395</v>
+      </c>
+      <c r="W102">
+        <v>434.73036703579101</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>10.656483709782947</v>
+      </c>
+      <c r="Y102">
+        <v>9.2589148628885773</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>455.25</v>
+      </c>
+      <c r="D103">
+        <v>462.45</v>
+      </c>
+      <c r="E103">
+        <v>449.15</v>
+      </c>
+      <c r="F103">
+        <v>451</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>454.2</v>
+      </c>
+      <c r="H103">
+        <v>454.61472774447611</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>455.06254284426547</v>
+      </c>
+      <c r="K103">
+        <v>444.63894687462181</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N103">
+        <v>55.939183220597755</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>1.8500000000000227</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>13.300000000000011</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.13909774436090386</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>446.25041216933181</v>
+      </c>
+      <c r="W103">
+        <v>435.93552503313981</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>10.314887136191999</v>
+      </c>
+      <c r="Y103">
+        <v>9.4701093175492623</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>452</v>
+      </c>
+      <c r="D104">
+        <v>454.15</v>
+      </c>
+      <c r="E104">
+        <v>441.5</v>
+      </c>
+      <c r="F104">
+        <v>446.45</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>447.36666666666662</v>
+      </c>
+      <c r="H104">
+        <v>450.99069720557134</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>454.85975554553983</v>
+      </c>
+      <c r="K104">
+        <v>443.94140312470586</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>44.72111110086103</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>4.9499999999999886</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>12.649999999999977</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.39130434782608675</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>446.28111798943462</v>
+      </c>
+      <c r="W104">
+        <v>436.71437503068501</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>9.5667429587496144</v>
+      </c>
+      <c r="Y104">
+        <v>9.4894360457893328</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>449</v>
+      </c>
+      <c r="D105">
+        <v>458</v>
+      </c>
+      <c r="E105">
+        <v>443.7</v>
+      </c>
+      <c r="F105">
+        <v>450</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>450.56666666666666</v>
+      </c>
+      <c r="H105">
+        <v>450.77868193611903</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>455.55758764653098</v>
+      </c>
+      <c r="K105">
+        <v>443.88775798588233</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N105">
+        <v>53.764037203465698</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>6.3000000000000114</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>14.300000000000011</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.44055944055944102</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V105">
+        <v>446.85325368336777</v>
+      </c>
+      <c r="W105">
+        <v>437.69849539878243</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>9.1547582845853412</v>
+      </c>
+      <c r="Y105">
+        <v>9.4225004935485348</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>450</v>
+      </c>
+      <c r="D106">
+        <v>458.35</v>
+      </c>
+      <c r="E106">
+        <v>447.35</v>
+      </c>
+      <c r="F106">
+        <v>449</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>451.56666666666666</v>
+      </c>
+      <c r="H106">
+        <v>451.17267430139282</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>456.17812372507967</v>
+      </c>
+      <c r="K106">
+        <v>444.65714510013072</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N106">
+        <v>50.835833502031512</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>1.6499999999999773</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>11</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.14999999999999794</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>447.18352234746504</v>
+      </c>
+      <c r="W106">
+        <v>438.53564388776152</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>8.6478784597035201</v>
+      </c>
+      <c r="Y106">
+        <v>9.2675760867795312</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>454</v>
+      </c>
+      <c r="D107">
+        <v>459.35</v>
+      </c>
+      <c r="E107">
+        <v>449.55</v>
+      </c>
+      <c r="F107">
+        <v>457.6</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>455.5</v>
+      </c>
+      <c r="H107">
+        <v>453.33633715069641</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>456.88298511950643</v>
+      </c>
+      <c r="K107">
+        <v>445.74444618899054</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N107">
+        <v>68.991142419779464</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>8.0500000000000114</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>9.8000000000000114</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.82142857142857162</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V107">
+        <v>448.78605737093199</v>
+      </c>
+      <c r="W107">
+        <v>439.947818414594</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>8.8382389563379888</v>
+      </c>
+      <c r="Y107">
+        <v>9.181708660691223</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
